--- a/369-préparation-publication-release-200/ig/all-profiles.xlsx
+++ b/369-préparation-publication-release-200/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:57:04+00:00</t>
+    <t>2025-09-19T09:50:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/369-préparation-publication-release-200/ig/all-profiles.xlsx
+++ b/369-préparation-publication-release-200/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T09:50:13+00:00</t>
+    <t>2025-09-22T09:23:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
